--- a/examples/results/T001/T001_0_1.xlsx
+++ b/examples/results/T001/T001_0_1.xlsx
@@ -6,13 +6,16 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="CANONICAL TABLE" r:id="rId3" sheetId="1"/>
+    <sheet name="ENTRIES" r:id="rId4" sheetId="2"/>
+    <sheet name="LABELS" r:id="rId5" sheetId="3"/>
+    <sheet name="INFO" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
   <si>
     <t>DATA</t>
   </si>
@@ -32,15 +35,15 @@
     <t>1</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>g</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -80,12 +83,12 @@
     <t>9</t>
   </si>
   <si>
+    <t>k</t>
+  </si>
+  <si>
     <t>h</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -93,6 +96,63 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>ENTRY</t>
+  </si>
+  <si>
+    <t>PROVENANCE</t>
+  </si>
+  <si>
+    <t>LABELS</t>
+  </si>
+  <si>
+    <t>"i [C12]", "c [D11]", "g [B12]", "a [D10]"</t>
+  </si>
+  <si>
+    <t>"i [C12]", "d [E11]", "g [B12]", "a [D10]"</t>
+  </si>
+  <si>
+    <t>"i [C12]", "e [F11]", "g [B12]", "b [F10]"</t>
+  </si>
+  <si>
+    <t>"i [C12]", "f [G11]", "g [B12]", "b [F10]"</t>
+  </si>
+  <si>
+    <t>"j [C13]", "c [D11]", "g [B12]", "a [D10]"</t>
+  </si>
+  <si>
+    <t>"j [C13]", "d [E11]", "g [B12]", "a [D10]"</t>
+  </si>
+  <si>
+    <t>"j [C13]", "e [F11]", "g [B12]", "b [F10]"</t>
+  </si>
+  <si>
+    <t>"j [C13]", "f [G11]", "g [B12]", "b [F10]"</t>
+  </si>
+  <si>
+    <t>"k [C14]", "c [D11]", "h [B14]", "a [D10]"</t>
+  </si>
+  <si>
+    <t>"k [C14]", "d [E11]", "h [B14]", "a [D10]"</t>
+  </si>
+  <si>
+    <t>"k [C14]", "e [F11]", "h [B14]", "b [F10]"</t>
+  </si>
+  <si>
+    <t>"k [C14]", "f [G11]", "h [B14]", "b [F10]"</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>LINK TO THE SOURCE TABLE</t>
   </si>
 </sst>
 </file>
@@ -142,6 +202,13 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="5.82421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.640625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.640625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -185,10 +252,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -202,10 +269,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -219,10 +286,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -233,10 +300,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -250,13 +317,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -267,13 +334,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -284,13 +351,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -304,10 +371,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -321,10 +388,10 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -338,10 +405,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -355,13 +422,352 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.3203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="36.6015625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!D12","D12")</f>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!E12","E12")</f>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!F12","F12")</f>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!G12","G12")</f>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!D13","D13")</f>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!E13","E13")</f>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!F13","F13")</f>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!G13","G13")</f>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!D14","D14")</f>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!E14","E14")</f>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!F14","F14")</f>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!G14","G14")</f>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.3203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.0234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.63671875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!D10","D10")</f>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!F10","F10")</f>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!D11","D11")</f>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!E11","E11")</f>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!F11","F11")</f>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!G11","G11")</f>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!B12","B12")</f>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!C12","C12")</f>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!C13","C13")</f>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!B14","B14")</f>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!C14","C14")</f>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="25.7890625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1">
+        <f>HYPERLINK("[..\..\T001.xlsx]001!B10","[..\..\T001.xlsx]001!B10")</f>
       </c>
     </row>
   </sheetData>
